--- a/biology/Botanique/Lavatera_trimestris/Lavatera_trimestris.xlsx
+++ b/biology/Botanique/Lavatera_trimestris/Lavatera_trimestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lavatera trimestris, la Lavatère d'un trimestre ou Mauve annuelle est une plante annuelle du genre Lavatera formant de grosses touffes couvertes de magnifiques fleurs roses et blanches en calice. Cette espèce est originaire de la région méditerranéenne.
 Synonyme
